--- a/trunk/Project_Management/Invidual Works/Duy/PagePath.xlsx
+++ b/trunk/Project_Management/Invidual Works/Duy/PagePath.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="9555" windowHeight="7740" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="9555" windowHeight="7740"/>
   </bookViews>
   <sheets>
     <sheet name="Học Sinh" sheetId="2" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="Danh Mục" sheetId="1" r:id="rId3"/>
     <sheet name="Lời nhắn khẩn" sheetId="3" r:id="rId4"/>
     <sheet name="Người dùng" sheetId="5" r:id="rId5"/>
+    <sheet name="Góp ý" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="77">
   <si>
     <t>danhmuc.aspx</t>
   </si>
@@ -250,6 +251,13 @@
   </si>
   <si>
     <t>phanquyen.aspx</t>
+  </si>
+  <si>
+    <t>Góp ý</t>
+  </si>
+  <si>
+    <t>ykien.aspx
+chitietykien.aspx</t>
   </si>
 </sst>
 </file>
@@ -664,7 +672,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -678,12 +686,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -695,29 +697,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -738,23 +725,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -772,12 +744,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -796,15 +828,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
@@ -813,18 +836,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1125,8 +1136,8 @@
   </sheetPr>
   <dimension ref="B2:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1140,18 +1151,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="18">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="18.75">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -1162,7 +1173,7 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="30">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="35" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -1173,7 +1184,7 @@
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="6"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
@@ -1182,7 +1193,7 @@
       </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="6"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="3" t="s">
         <v>20</v>
       </c>
@@ -1191,7 +1202,7 @@
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="6"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="3" t="s">
         <v>18</v>
       </c>
@@ -1201,7 +1212,7 @@
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="2:5" ht="30">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="36" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -1213,7 +1224,7 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="6"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="3" t="s">
         <v>16</v>
       </c>
@@ -1223,7 +1234,7 @@
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="2:5" ht="30">
-      <c r="B10" s="6"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="3" t="s">
         <v>20</v>
       </c>
@@ -1232,7 +1243,7 @@
       </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="6"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="3" t="s">
         <v>18</v>
       </c>
@@ -1241,7 +1252,7 @@
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="35" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -1252,7 +1263,7 @@
       </c>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="6"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="3" t="s">
         <v>16</v>
       </c>
@@ -1261,7 +1272,7 @@
       </c>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="6"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="3" t="s">
         <v>20</v>
       </c>
@@ -1270,7 +1281,7 @@
       </c>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="6"/>
+      <c r="B15" s="35"/>
       <c r="C15" s="3" t="s">
         <v>18</v>
       </c>
@@ -1279,7 +1290,7 @@
       </c>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="35" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -1290,7 +1301,7 @@
       </c>
     </row>
     <row r="17" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B17" s="6"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="3" t="s">
         <v>16</v>
       </c>
@@ -1299,7 +1310,7 @@
       </c>
     </row>
     <row r="18" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B18" s="6"/>
+      <c r="B18" s="35"/>
       <c r="C18" s="3" t="s">
         <v>20</v>
       </c>
@@ -1308,7 +1319,7 @@
       </c>
     </row>
     <row r="19" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B19" s="6"/>
+      <c r="B19" s="35"/>
       <c r="C19" s="3" t="s">
         <v>18</v>
       </c>
@@ -1317,7 +1328,7 @@
       </c>
     </row>
     <row r="20" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="34" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -1328,7 +1339,7 @@
       </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="5"/>
+      <c r="B21" s="34"/>
       <c r="C21" s="3" t="s">
         <v>20</v>
       </c>
@@ -1337,24 +1348,24 @@
       </c>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="10"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="8"/>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="10"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="8"/>
     </row>
     <row r="24" spans="2:4">
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="10"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="2:4">
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1397,166 +1408,166 @@
   <sheetData>
     <row r="1" spans="2:4" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:4" ht="18.75" thickBot="1">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="15" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="19.5" thickBot="1">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="35" t="s">
+      <c r="C3" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="23" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="30">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="38" t="s">
+      <c r="C4" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="26" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="15" customHeight="1">
-      <c r="B5" s="16"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="37" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="15" customHeight="1">
-      <c r="B6" s="16"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="39"/>
+      <c r="D6" s="37"/>
     </row>
     <row r="7" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B7" s="19"/>
-      <c r="C7" s="20" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="40"/>
+      <c r="D7" s="38"/>
     </row>
     <row r="8" spans="2:4" ht="15" customHeight="1">
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="33" t="s">
+      <c r="C8" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="21" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="15" customHeight="1">
-      <c r="B9" s="16"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="10" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="15" customHeight="1">
-      <c r="B10" s="16"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="10" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B11" s="19"/>
-      <c r="C11" s="20" t="s">
+      <c r="B11" s="41"/>
+      <c r="C11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="14" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="15" customHeight="1">
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="33" t="s">
+      <c r="C12" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="21" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="15" customHeight="1">
-      <c r="B13" s="16"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="10" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="30">
-      <c r="B14" s="16"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="12" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B15" s="19"/>
-      <c r="C15" s="20" t="s">
+      <c r="B15" s="41"/>
+      <c r="C15" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="14" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="15" customHeight="1">
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="33"/>
+      <c r="C16" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="21"/>
     </row>
     <row r="17" spans="2:4" ht="15" customHeight="1">
-      <c r="B17" s="16"/>
+      <c r="B17" s="40"/>
       <c r="C17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="13"/>
+      <c r="D17" s="10"/>
     </row>
     <row r="18" spans="2:4" ht="15" customHeight="1">
-      <c r="B18" s="16"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="13"/>
+      <c r="D18" s="10"/>
     </row>
     <row r="19" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B19" s="19"/>
-      <c r="C19" s="20" t="s">
+      <c r="B19" s="41"/>
+      <c r="C19" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="21"/>
+      <c r="D19" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1583,7 +1594,7 @@
   </sheetPr>
   <dimension ref="B1:D43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="B4" sqref="B4:B7"/>
     </sheetView>
   </sheetViews>
@@ -1599,359 +1610,361 @@
   <sheetData>
     <row r="1" spans="2:4" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:4" ht="18.75" thickBot="1">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="15" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="19.5" thickBot="1">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="26" t="s">
+      <c r="C3" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="19" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="29" t="s">
+      <c r="C4" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="45" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="14"/>
+      <c r="B5" s="43"/>
       <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="15"/>
+      <c r="D5" s="46"/>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="14"/>
+      <c r="B6" s="43"/>
       <c r="C6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="15"/>
+      <c r="D6" s="46"/>
     </row>
     <row r="7" spans="2:4" ht="15.75" thickBot="1">
-      <c r="B7" s="30"/>
-      <c r="C7" s="20" t="s">
+      <c r="B7" s="44"/>
+      <c r="C7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="31"/>
+      <c r="D7" s="47"/>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="29" t="s">
+      <c r="C8" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="45" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="14"/>
+      <c r="B9" s="43"/>
       <c r="C9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="15"/>
+      <c r="D9" s="46"/>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="14"/>
+      <c r="B10" s="43"/>
       <c r="C10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="15"/>
+      <c r="D10" s="46"/>
     </row>
     <row r="11" spans="2:4" ht="15.75" thickBot="1">
-      <c r="B11" s="30"/>
-      <c r="C11" s="20" t="s">
+      <c r="B11" s="44"/>
+      <c r="C11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="31"/>
+      <c r="D11" s="47"/>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="29" t="s">
+      <c r="C12" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="45" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="14"/>
+      <c r="B13" s="43"/>
       <c r="C13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="46"/>
     </row>
     <row r="14" spans="2:4">
-      <c r="B14" s="14"/>
+      <c r="B14" s="43"/>
       <c r="C14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="15"/>
+      <c r="D14" s="46"/>
     </row>
     <row r="15" spans="2:4" ht="15.75" thickBot="1">
-      <c r="B15" s="30"/>
-      <c r="C15" s="20" t="s">
+      <c r="B15" s="44"/>
+      <c r="C15" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="31"/>
+      <c r="D15" s="47"/>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="29" t="s">
+      <c r="C16" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="45" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="14"/>
+      <c r="B17" s="43"/>
       <c r="C17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="15"/>
+      <c r="D17" s="46"/>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="14"/>
+      <c r="B18" s="43"/>
       <c r="C18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="15"/>
+      <c r="D18" s="46"/>
     </row>
     <row r="19" spans="2:4" ht="15.75" thickBot="1">
-      <c r="B19" s="30"/>
-      <c r="C19" s="20" t="s">
+      <c r="B19" s="44"/>
+      <c r="C19" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="31"/>
+      <c r="D19" s="47"/>
     </row>
     <row r="20" spans="2:4" ht="15" customHeight="1">
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="29" t="s">
+      <c r="C20" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="45" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="15" customHeight="1">
-      <c r="B21" s="16"/>
+      <c r="B21" s="40"/>
       <c r="C21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="15"/>
+      <c r="D21" s="46"/>
     </row>
     <row r="22" spans="2:4" ht="15" customHeight="1">
-      <c r="B22" s="16"/>
+      <c r="B22" s="40"/>
       <c r="C22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="15"/>
+      <c r="D22" s="46"/>
     </row>
     <row r="23" spans="2:4" ht="15" customHeight="1" thickBot="1">
-      <c r="B23" s="19"/>
-      <c r="C23" s="20" t="s">
+      <c r="B23" s="41"/>
+      <c r="C23" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="31"/>
+      <c r="D23" s="47"/>
     </row>
     <row r="24" spans="2:4">
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="15" t="s">
+      <c r="C24" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="46" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="25" spans="2:4">
-      <c r="B25" s="16"/>
+      <c r="B25" s="40"/>
       <c r="C25" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="15"/>
+      <c r="D25" s="46"/>
     </row>
     <row r="26" spans="2:4">
-      <c r="B26" s="16"/>
+      <c r="B26" s="40"/>
       <c r="C26" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="15"/>
+      <c r="D26" s="46"/>
     </row>
     <row r="27" spans="2:4" ht="15.75" thickBot="1">
-      <c r="B27" s="16"/>
-      <c r="C27" s="9" t="s">
+      <c r="B27" s="40"/>
+      <c r="C27" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="15"/>
+      <c r="D27" s="46"/>
     </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="33" t="s">
+      <c r="C28" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="21" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="29" spans="2:4">
-      <c r="B29" s="16"/>
+      <c r="B29" s="40"/>
       <c r="C29" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="17"/>
+      <c r="D29" s="11"/>
     </row>
     <row r="30" spans="2:4">
-      <c r="B30" s="16"/>
+      <c r="B30" s="40"/>
       <c r="C30" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="17"/>
+      <c r="D30" s="11"/>
     </row>
     <row r="31" spans="2:4" ht="15.75" thickBot="1">
-      <c r="B31" s="19"/>
-      <c r="C31" s="20" t="s">
+      <c r="B31" s="41"/>
+      <c r="C31" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="21" t="s">
+      <c r="D31" s="14" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="32" spans="2:4">
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="15" t="s">
+      <c r="C32" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="46" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="16"/>
+      <c r="B33" s="40"/>
       <c r="C33" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="15"/>
+      <c r="D33" s="46"/>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="16"/>
+      <c r="B34" s="40"/>
       <c r="C34" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D34" s="15"/>
+      <c r="D34" s="46"/>
     </row>
     <row r="35" spans="2:4" ht="15.75" thickBot="1">
-      <c r="B35" s="16"/>
-      <c r="C35" s="9" t="s">
+      <c r="B35" s="40"/>
+      <c r="C35" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D35" s="15"/>
+      <c r="D35" s="46"/>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="32" t="s">
+      <c r="B36" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" s="33" t="s">
+      <c r="C36" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="21" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="37" spans="2:4">
-      <c r="B37" s="16"/>
+      <c r="B37" s="40"/>
       <c r="C37" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="17"/>
+      <c r="D37" s="11"/>
     </row>
     <row r="38" spans="2:4">
-      <c r="B38" s="16"/>
+      <c r="B38" s="40"/>
       <c r="C38" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D38" s="17"/>
+      <c r="D38" s="11"/>
     </row>
     <row r="39" spans="2:4" ht="15.75" thickBot="1">
-      <c r="B39" s="19"/>
-      <c r="C39" s="20" t="s">
+      <c r="B39" s="41"/>
+      <c r="C39" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="21" t="s">
+      <c r="D39" s="14" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="40" spans="2:4" ht="30">
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="C40" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="34" t="s">
+      <c r="C40" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="22" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="41" spans="2:4">
-      <c r="B41" s="16"/>
+      <c r="B41" s="40"/>
       <c r="C41" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D41" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="42" spans="2:4">
-      <c r="B42" s="16"/>
+      <c r="B42" s="40"/>
       <c r="C42" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="D42" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="15.75" thickBot="1">
-      <c r="B43" s="19"/>
-      <c r="C43" s="20" t="s">
+      <c r="B43" s="41"/>
+      <c r="C43" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="21" t="s">
+      <c r="D43" s="14" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B16:B19"/>
     <mergeCell ref="B36:B39"/>
     <mergeCell ref="B40:B43"/>
     <mergeCell ref="D4:D7"/>
@@ -1967,8 +1980,6 @@
     <mergeCell ref="B32:B35"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B16:B19"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C43">
@@ -1988,7 +1999,7 @@
   <dimension ref="B1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B2" sqref="B2:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2000,112 +2011,112 @@
   <sheetData>
     <row r="1" spans="2:4" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:4" ht="18.75" thickBot="1">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="15" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="18.75" customHeight="1">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="44" t="s">
+      <c r="C3" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="52" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="15" customHeight="1">
-      <c r="B4" s="42"/>
+      <c r="B4" s="50"/>
       <c r="C4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="45"/>
+      <c r="D4" s="53"/>
     </row>
     <row r="5" spans="2:4" ht="15" customHeight="1">
-      <c r="B5" s="42"/>
+      <c r="B5" s="50"/>
       <c r="C5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="45"/>
+      <c r="D5" s="53"/>
     </row>
     <row r="6" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B6" s="43"/>
-      <c r="C6" s="20" t="s">
+      <c r="B6" s="51"/>
+      <c r="C6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="46"/>
+      <c r="D6" s="54"/>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="47"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="11"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="9"/>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="47"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="11"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="9"/>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="47"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="11"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="9"/>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="47"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="11"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="9"/>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="47"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="11"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="9"/>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="47"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="11"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="9"/>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="47"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="49"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="28"/>
     </row>
     <row r="14" spans="2:4">
-      <c r="B14" s="47"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="11"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="9"/>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="47"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="11"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="47"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="11"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="47"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="11"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="47"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="11"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2131,7 +2142,7 @@
   </sheetPr>
   <dimension ref="B1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -2144,111 +2155,111 @@
   <sheetData>
     <row r="1" spans="2:4" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:4" ht="18.75" thickBot="1">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="15" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="15" customHeight="1" thickBot="1">
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="56" t="s">
+      <c r="C3" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="32" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="30">
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="38" t="s">
+      <c r="C4" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="26" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="51"/>
+      <c r="B5" s="56"/>
       <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="51"/>
+      <c r="B6" s="56"/>
       <c r="C6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="15.75" thickBot="1">
-      <c r="B7" s="52"/>
-      <c r="C7" s="20" t="s">
+      <c r="B7" s="57"/>
+      <c r="C7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="14" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="33" t="s">
+      <c r="C8" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="21" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="51"/>
+      <c r="B9" s="56"/>
       <c r="C9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="10" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="51"/>
+      <c r="B10" s="56"/>
       <c r="C10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="10" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="15.75" thickBot="1">
-      <c r="B11" s="52"/>
-      <c r="C11" s="20" t="s">
+      <c r="B11" s="57"/>
+      <c r="C11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="14" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="15" customHeight="1" thickBot="1">
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="26" t="s">
+      <c r="C12" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="19" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2264,4 +2275,76 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="35.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:4" ht="18.75" thickBot="1">
+      <c r="B2" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="30">
+      <c r="B3" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="50"/>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="50"/>
+      <c r="C5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="2:4" ht="15.75" thickBot="1">
+      <c r="B6" s="51"/>
+      <c r="C6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:B6"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:D6">
+      <formula1>"Xem, Thêm, Xóa, Sửa"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>